--- a/tests/data.gui/test/spectrophotometry/dsl.11/kev.constants.data.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.11/kev.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99873</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.998729686884547</v>
+      <c r="A2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -34852,16 +34855,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.75613734583279e-05</v>
+        <v>0.0000875613734583279</v>
       </c>
       <c r="B2" t="n">
-        <v>8.75612592527336e-05</v>
+        <v>0.0000875612592527336</v>
       </c>
       <c r="C2" t="n">
-        <v>1.28887411407405e-05</v>
+        <v>0.0000128887411407405</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14205609220591e-10</v>
+        <v>0.000000000114205609220591</v>
       </c>
     </row>
     <row r="3">
@@ -34869,13 +34872,13 @@
         <v>0.000304126591379064</v>
       </c>
       <c r="B3" t="n">
-        <v>6.64545584997988e-05</v>
+        <v>0.0000664545584997988</v>
       </c>
       <c r="C3" t="n">
-        <v>3.39754415028973e-05</v>
+        <v>0.0000339754415028973</v>
       </c>
       <c r="D3" t="n">
-        <v>3.28810445500833e-11</v>
+        <v>0.0000000000328810445500833</v>
       </c>
     </row>
     <row r="4">
@@ -34883,13 +34886,13 @@
         <v>0.000528424759313423</v>
       </c>
       <c r="B4" t="n">
-        <v>5.31737408480664e-05</v>
+        <v>0.0000531737408480664</v>
       </c>
       <c r="C4" t="n">
-        <v>4.72352600187137e-05</v>
+        <v>0.0000472352600187137</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89241700426621e-11</v>
+        <v>0.0000000000189241700426621</v>
       </c>
     </row>
     <row r="5">
@@ -34897,13 +34900,13 @@
         <v>0.000756910158232725</v>
       </c>
       <c r="B5" t="n">
-        <v>4.41771450211191e-05</v>
+        <v>0.0000441771450211191</v>
       </c>
       <c r="C5" t="n">
-        <v>5.62118549788836e-05</v>
+        <v>0.0000562118549788836</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32116076012886e-11</v>
+        <v>0.0000000000132116076012886</v>
       </c>
     </row>
     <row r="6">
@@ -34911,13 +34914,13 @@
         <v>0.000987844688669575</v>
       </c>
       <c r="B6" t="n">
-        <v>3.77236785465983e-05</v>
+        <v>0.0000377236785465983</v>
       </c>
       <c r="C6" t="n">
-        <v>6.26453214535954e-05</v>
+        <v>0.0000626453214535954</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01230488098974e-11</v>
+        <v>0.0000000000101230488098974</v>
       </c>
     </row>
     <row r="7">
@@ -34925,13 +34928,13 @@
         <v>0.00122029912827767</v>
       </c>
       <c r="B7" t="n">
-        <v>3.28861200843795e-05</v>
+        <v>0.0000328861200843795</v>
       </c>
       <c r="C7" t="n">
-        <v>6.7462879919966e-05</v>
+        <v>0.000067462879919966</v>
       </c>
       <c r="D7" t="n">
-        <v>8.19471207368147e-12</v>
+        <v>0.00000000000819471207368147</v>
       </c>
     </row>
     <row r="8">
@@ -34939,13 +34942,13 @@
         <v>0.00145374384310854</v>
       </c>
       <c r="B8" t="n">
-        <v>2.91328362432115e-05</v>
+        <v>0.0000291328362432115</v>
       </c>
       <c r="C8" t="n">
-        <v>7.1196163803152e-05</v>
+        <v>0.000071196163803152</v>
       </c>
       <c r="D8" t="n">
-        <v>6.87879095578282e-12</v>
+        <v>0.00000000000687879095578282</v>
       </c>
     </row>
     <row r="9">
@@ -34953,13 +34956,13 @@
         <v>0.00168785383097993</v>
       </c>
       <c r="B9" t="n">
-        <v>2.61398251339134e-05</v>
+        <v>0.0000261398251339134</v>
       </c>
       <c r="C9" t="n">
-        <v>7.4169175167954e-05</v>
+        <v>0.000074169175167954</v>
       </c>
       <c r="D9" t="n">
-        <v>5.92468365237185e-12</v>
+        <v>0.00000000000592468365237185</v>
       </c>
     </row>
     <row r="10">
@@ -34967,13 +34970,13 @@
         <v>0.00192242230997253</v>
       </c>
       <c r="B10" t="n">
-        <v>2.36993050989752e-05</v>
+        <v>0.0000236993050989752</v>
       </c>
       <c r="C10" t="n">
-        <v>7.65896962899662e-05</v>
+        <v>0.0000765896962899662</v>
       </c>
       <c r="D10" t="n">
-        <v>5.20177067657048e-12</v>
+        <v>0.00000000000520177067657048</v>
       </c>
     </row>
     <row r="11">
@@ -34981,13 +34984,13 @@
         <v>0.0021573093416603</v>
       </c>
       <c r="B11" t="n">
-        <v>2.16723370248982e-05</v>
+        <v>0.0000216723370248982</v>
       </c>
       <c r="C11" t="n">
-        <v>7.85966629751018e-05</v>
+        <v>0.0000785966629751018</v>
       </c>
       <c r="D11" t="n">
-        <v>4.63540383703332e-12</v>
+        <v>0.00000000000463540383703332</v>
       </c>
     </row>
   </sheetData>
@@ -46836,7 +46839,7 @@
         <v>0.00854376875537333</v>
       </c>
       <c r="E312" t="n">
-        <v>6.51873345243192e-05</v>
+        <v>0.0000651873345243192</v>
       </c>
       <c r="F312" t="n">
         <v>-0.00560258370322497</v>
@@ -48102,7 +48105,7 @@
         <v>0.00347651654877745</v>
       </c>
       <c r="I345" t="n">
-        <v>-1.99537559467666e-05</v>
+        <v>-0.0000199537559467666</v>
       </c>
       <c r="J345" t="n">
         <v>-0.00555259227751081</v>
@@ -48289,7 +48292,7 @@
         <v>0.00434276946201739</v>
       </c>
       <c r="H350" t="n">
-        <v>-7.88283998455208e-05</v>
+        <v>-0.0000788283998455208</v>
       </c>
       <c r="I350" t="n">
         <v>-0.00296514723726393</v>
@@ -50867,7 +50870,7 @@
         <v>0.00674589965377698</v>
       </c>
       <c r="F418" t="n">
-        <v>7.71211866233967e-05</v>
+        <v>0.0000771211866233967</v>
       </c>
       <c r="G418" t="n">
         <v>-0.00339072168328802</v>
@@ -51428,7 +51431,7 @@
         <v>306</v>
       </c>
       <c r="C433" t="n">
-        <v>4.23159541261264e-05</v>
+        <v>0.0000423159541261264</v>
       </c>
       <c r="D433" t="n">
         <v>0.00972650332184524</v>
@@ -66648,7 +66651,7 @@
         <v>0.00808303571936928</v>
       </c>
       <c r="E312" t="n">
-        <v>6.28009003124463e-05</v>
+        <v>0.0000628009003124463</v>
       </c>
       <c r="F312" t="n">
         <v>-0.00546593532021949</v>
@@ -67914,7 +67917,7 @@
         <v>0.00405188408948421</v>
       </c>
       <c r="I345" t="n">
-        <v>-2.22698169048735e-05</v>
+        <v>-0.0000222698169048735</v>
       </c>
       <c r="J345" t="n">
         <v>-0.00597695616524307</v>
